--- a/student-service-master/doc/log/log_201608040109_zhanghao.xlsx
+++ b/student-service-master/doc/log/log_201608040109_zhanghao.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
@@ -11,16 +11,11 @@
     <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +131,87 @@
   </si>
   <si>
     <t>还是对spring不太懂 继续学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpa学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龟速学习中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring视频观看，细节优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓慢修改ing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析json文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此方法沦陷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:01</t>
+  </si>
+  <si>
+    <t>spring视频观看，细节优化</t>
+  </si>
+  <si>
+    <t>龟速学习中</t>
+  </si>
+  <si>
+    <t>继续学习</t>
+  </si>
+  <si>
+    <t>java相关知识学习</t>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:02</t>
+  </si>
+  <si>
+    <t>mvc学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,26 +255,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -517,10 +587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -622,7 +692,7 @@
         <v>43232</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -632,6 +702,278 @@
       </c>
       <c r="E6" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>43235</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>43236</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>43238</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>43239</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4">
+        <v>43240</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4">
+        <v>43241</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4">
+        <v>43242</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4">
+        <v>43243</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4">
+        <v>43244</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4">
+        <v>43249</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>43250</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>43252</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4">
+        <v>43253</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4">
+        <v>43254</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>43255</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4">
+        <v>43261</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
